--- a/archieves/story0.xlsx
+++ b/archieves/story0.xlsx
@@ -5,17 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doni.suhartono/Documents/GitHub/DemurageCost_SimTool/archieves/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doni.suhartono/Documents/GitHub/conda/story_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A4EC87-0DFB-594C-A136-2FD6FB97AD06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E887EFD-A40A-754F-BC85-6FDD3EF234B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -494,7 +504,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -578,49 +588,49 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>43871</v>
+        <v>43886</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>43881</v>
+        <v>43896</v>
       </c>
       <c r="F2">
-        <v>159386</v>
+        <v>70000</v>
       </c>
       <c r="G2">
         <v>15000</v>
       </c>
       <c r="H2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>43871</v>
+        <v>43886</v>
       </c>
       <c r="M2" s="2">
-        <v>43881</v>
+        <v>43896</v>
       </c>
       <c r="N2" s="2">
-        <v>43872</v>
+        <v>43887</v>
       </c>
       <c r="O2" s="2">
-        <v>43872</v>
+        <v>43887</v>
       </c>
       <c r="P2" s="2">
-        <v>43883</v>
+        <v>43892</v>
       </c>
       <c r="Q2" s="2">
-        <v>43883</v>
+        <v>43892</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -631,49 +641,49 @@
         <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>43882</v>
+        <v>43897</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>43892</v>
+        <v>43907</v>
       </c>
       <c r="F3">
-        <v>145095</v>
+        <v>70000</v>
       </c>
       <c r="G3">
         <v>15000</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>43882</v>
+        <v>43897</v>
       </c>
       <c r="M3" s="2">
-        <v>43892</v>
+        <v>43907</v>
       </c>
       <c r="N3" s="2">
-        <v>43883</v>
+        <v>43898</v>
       </c>
       <c r="O3" s="2">
-        <v>43883</v>
+        <v>43898</v>
       </c>
       <c r="P3" s="2">
-        <v>43894</v>
+        <v>43903</v>
       </c>
       <c r="Q3" s="2">
-        <v>43894</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -684,49 +694,49 @@
         <v>24</v>
       </c>
       <c r="C4" s="2">
-        <v>43893</v>
+        <v>43898</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>43903</v>
+        <v>43908</v>
       </c>
       <c r="F4">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G4">
         <v>15000</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>43893</v>
+        <v>43898</v>
       </c>
       <c r="M4" s="2">
-        <v>43903</v>
+        <v>43908</v>
       </c>
       <c r="N4" s="2">
-        <v>43894</v>
+        <v>43899</v>
       </c>
       <c r="O4" s="2">
-        <v>43894</v>
+        <v>43899</v>
       </c>
       <c r="P4" s="2">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="Q4" s="2">
-        <v>43907</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -737,49 +747,49 @@
         <v>35</v>
       </c>
       <c r="C5" s="2">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="F5">
-        <v>100088</v>
+        <v>80000</v>
       </c>
       <c r="G5">
         <v>15000</v>
       </c>
       <c r="H5">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="M5" s="2">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="N5" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="O5" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="P5" s="2">
-        <v>43919</v>
+        <v>43912</v>
       </c>
       <c r="Q5" s="2">
-        <v>43919</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -790,49 +800,49 @@
         <v>46</v>
       </c>
       <c r="C6" s="2">
-        <v>43915</v>
+        <v>43908</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>43925</v>
+        <v>43918</v>
       </c>
       <c r="F6">
-        <v>163846</v>
+        <v>90000</v>
       </c>
       <c r="G6">
         <v>15000</v>
       </c>
       <c r="H6">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" s="2">
+        <v>43908</v>
+      </c>
+      <c r="M6" s="2">
+        <v>43918</v>
+      </c>
+      <c r="N6" s="2">
+        <v>43909</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43909</v>
+      </c>
+      <c r="P6" s="2">
         <v>43915</v>
       </c>
-      <c r="M6" s="2">
-        <v>43925</v>
-      </c>
-      <c r="N6" s="2">
-        <v>43916</v>
-      </c>
-      <c r="O6" s="2">
-        <v>43916</v>
-      </c>
-      <c r="P6" s="2">
-        <v>43927</v>
-      </c>
       <c r="Q6" s="2">
-        <v>43927</v>
+        <v>43915</v>
       </c>
     </row>
   </sheetData>

--- a/archieves/story0.xlsx
+++ b/archieves/story0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doni.suhartono/Documents/GitHub/conda/story_0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doni.suhartono/Documents/GitHub/conda/archieves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E887EFD-A40A-754F-BC85-6FDD3EF234B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF28F3A0-8657-FC40-9979-F05B50F39C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>MV</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>MV E</t>
+  </si>
+  <si>
+    <t>MV F</t>
   </si>
 </sst>
 </file>
@@ -157,12 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -845,6 +849,59 @@
         <v>43915</v>
       </c>
     </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43909</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43919</v>
+      </c>
+      <c r="F7">
+        <v>90000</v>
+      </c>
+      <c r="G7">
+        <v>15000</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10000</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>43909</v>
+      </c>
+      <c r="M7" s="3">
+        <v>43919</v>
+      </c>
+      <c r="N7" s="3">
+        <v>43910</v>
+      </c>
+      <c r="O7" s="3">
+        <v>43910</v>
+      </c>
+      <c r="P7" s="3">
+        <v>43920</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>43920</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
